--- a/app/config/tables/refrigerators/forms/refrigerator_status/refrigerator_status.xlsx
+++ b/app/config/tables/refrigerators/forms/refrigerator_status/refrigerator_status.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarice\cold-chain\cold-chain-app-designer\app\config\tables\refrigerators\forms\refrigerator_status\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="37940" windowHeight="19700" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="37940" windowHeight="19700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="107">
   <si>
     <t>comments</t>
   </si>
@@ -104,18 +109,9 @@
     <t>status</t>
   </si>
   <si>
-    <t>working_status</t>
-  </si>
-  <si>
-    <t>Working Status</t>
-  </si>
-  <si>
     <t>Functionando</t>
   </si>
   <si>
-    <t xml:space="preserve">Working status: </t>
-  </si>
-  <si>
     <t>¿Functionando?</t>
   </si>
   <si>
@@ -146,24 +142,6 @@
     <t>Functioning</t>
   </si>
   <si>
-    <t>awaiting_repair</t>
-  </si>
-  <si>
-    <t>Awaiting Repair</t>
-  </si>
-  <si>
-    <t>Esperando Servicio</t>
-  </si>
-  <si>
-    <t>unservicable</t>
-  </si>
-  <si>
-    <t>Unservicable</t>
-  </si>
-  <si>
-    <t>Irreparable</t>
-  </si>
-  <si>
     <t>needs_spare_parts</t>
   </si>
   <si>
@@ -173,40 +151,10 @@
     <t>Necesita Partes</t>
   </si>
   <si>
-    <t>no_finance</t>
-  </si>
-  <si>
-    <t>No Finance</t>
-  </si>
-  <si>
-    <t>Sin Dinero</t>
-  </si>
-  <si>
-    <t>no_fuel</t>
-  </si>
-  <si>
-    <t>No Fuel</t>
-  </si>
-  <si>
-    <t>Sin Combustible</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>Dead</t>
-  </si>
-  <si>
-    <t>Muerto</t>
-  </si>
-  <si>
     <t>not_applicable</t>
   </si>
   <si>
     <t>Not Applicable</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>in_use</t>
@@ -337,13 +285,79 @@
   <si>
     <t xml:space="preserve">
 Estado del Refrigerador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional status: </t>
+  </si>
+  <si>
+    <t>Functional Status</t>
+  </si>
+  <si>
+    <t>functional_status</t>
+  </si>
+  <si>
+    <t>not_functioning</t>
+  </si>
+  <si>
+    <t>Not Functioning</t>
+  </si>
+  <si>
+    <t>No Functionando</t>
+  </si>
+  <si>
+    <t>unknown_needs_investigation</t>
+  </si>
+  <si>
+    <t>Unknown/Needs Investigation</t>
+  </si>
+  <si>
+    <t>Investigación desconocida / de necesidades</t>
+  </si>
+  <si>
+    <t>lack_of_power</t>
+  </si>
+  <si>
+    <t>Lack of Power</t>
+  </si>
+  <si>
+    <t>Falta de poder</t>
+  </si>
+  <si>
+    <t>awaiting_installation</t>
+  </si>
+  <si>
+    <t>Awaiting Installation</t>
+  </si>
+  <si>
+    <t>En espera de instalación</t>
+  </si>
+  <si>
+    <t>awaiting_decomissioning</t>
+  </si>
+  <si>
+    <t>Awaiting Decomissioning</t>
+  </si>
+  <si>
+    <t>En espera de desarme</t>
+  </si>
+  <si>
+    <t>lack_of_tech_availability</t>
+  </si>
+  <si>
+    <t>Lack of Technician Availability</t>
+  </si>
+  <si>
+    <t>Falta de disponibilidad de técnicos</t>
+  </si>
+  <si>
+    <t>No aplica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -378,6 +392,12 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -410,7 +430,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -426,6 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -505,6 +526,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -832,27 +861,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.83203125" customWidth="1"/>
-    <col min="2" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="30.5" customWidth="1"/>
-    <col min="9" max="9" width="41.6640625" customWidth="1"/>
-    <col min="10" max="10" width="34.83203125" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" customWidth="1"/>
-    <col min="13" max="1025" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="42.81640625" customWidth="1"/>
+    <col min="2" max="3" width="11.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" customWidth="1"/>
+    <col min="6" max="6" width="24.6328125" customWidth="1"/>
+    <col min="7" max="7" width="29.6328125" customWidth="1"/>
+    <col min="8" max="8" width="30.453125" customWidth="1"/>
+    <col min="9" max="9" width="41.6328125" customWidth="1"/>
+    <col min="10" max="10" width="34.81640625" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" customWidth="1"/>
+    <col min="12" max="12" width="6.1796875" customWidth="1"/>
+    <col min="13" max="1025" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,14 +928,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16" customHeight="1">
+    <row r="2" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>16</v>
       </c>
@@ -929,7 +958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16" customHeight="1">
+    <row r="4" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>16</v>
       </c>
@@ -937,68 +966,68 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1">
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
       <c r="J5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="12.75" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1016,26 +1045,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" customWidth="1"/>
-    <col min="4" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" customWidth="1"/>
+    <col min="3" max="3" width="44.1796875" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" customWidth="1"/>
+    <col min="5" max="1025" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.25" customHeight="1">
+    <row r="1" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -1044,214 +1074,231 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" customHeight="1">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" customHeight="1">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" customHeight="1">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="19" customHeight="1">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" customHeight="1">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1">
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>85</v>
-      </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1269,24 +1316,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="1025" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.36328125" customWidth="1"/>
+    <col min="4" max="1025" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.75" customHeight="1">
+    <row r="1" spans="1:6" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1295,75 +1342,75 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.75" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.75" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.75" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2">
         <v>20171011</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.75" customHeight="1">
+    <row r="5" spans="1:6" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/refrigerators/forms/refrigerator_status/refrigerator_status.xlsx
+++ b/app/config/tables/refrigerators/forms/refrigerator_status/refrigerator_status.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="37940" windowHeight="19700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="37935" windowHeight="19695" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -172,15 +172,6 @@
     <t>No En Uso</t>
   </si>
   <si>
-    <t>in_store_for_allocation</t>
-  </si>
-  <si>
-    <t>In Store For Allocation</t>
-  </si>
-  <si>
-    <t>Almacenado Epsperando asignación</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -351,6 +342,15 @@
   </si>
   <si>
     <t>No aplica</t>
+  </si>
+  <si>
+    <t>not_installed</t>
+  </si>
+  <si>
+    <t>Not Installed</t>
+  </si>
+  <si>
+    <t>No Instalado</t>
   </si>
 </sst>
 </file>
@@ -861,27 +861,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.81640625" customWidth="1"/>
-    <col min="2" max="3" width="11.36328125" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" customWidth="1"/>
-    <col min="6" max="6" width="24.6328125" customWidth="1"/>
-    <col min="7" max="7" width="29.6328125" customWidth="1"/>
-    <col min="8" max="8" width="30.453125" customWidth="1"/>
-    <col min="9" max="9" width="41.6328125" customWidth="1"/>
-    <col min="10" max="10" width="34.81640625" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" customWidth="1"/>
-    <col min="12" max="12" width="6.1796875" customWidth="1"/>
-    <col min="13" max="1025" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
+    <col min="9" max="9" width="41.5703125" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" customWidth="1"/>
+    <col min="13" max="1025" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,14 +928,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>16</v>
       </c>
@@ -958,7 +958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>16</v>
       </c>
@@ -966,22 +966,22 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>16</v>
       </c>
@@ -1004,30 +1004,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" t="s">
         <v>66</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>67</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>68</v>
       </c>
-      <c r="H6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1047,20 +1047,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" customWidth="1"/>
-    <col min="3" max="3" width="44.1796875" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" customWidth="1"/>
-    <col min="5" max="1025" width="8.6328125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1088,24 +1088,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1119,77 +1119,77 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1200,10 +1200,10 @@
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1231,23 +1231,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
@@ -1256,49 +1256,49 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
         <v>72</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>75</v>
       </c>
-      <c r="D18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>76</v>
       </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
         <v>74</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>77</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1320,20 +1320,20 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="28.36328125" customWidth="1"/>
-    <col min="4" max="1025" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="1025" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1342,75 +1342,75 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="B4" s="2">
         <v>20171011</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>61</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/refrigerators/forms/refrigerator_status/refrigerator_status.xlsx
+++ b/app/config/tables/refrigerators/forms/refrigerator_status/refrigerator_status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="37935" windowHeight="19695" tabRatio="500"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="37940" windowHeight="19700" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,19 +17,11 @@
     <sheet name="settings" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="139">
   <si>
     <t>comments</t>
   </si>
@@ -274,10 +266,6 @@
     <t>Refrigerator Status</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Estado del Refrigerador</t>
-  </si>
-  <si>
     <t xml:space="preserve">Functional status: </t>
   </si>
   <si>
@@ -351,6 +339,105 @@
   </si>
   <si>
     <t>No Instalado</t>
+  </si>
+  <si>
+    <t>display.title.text.fr</t>
+  </si>
+  <si>
+    <t>Fonctionne</t>
+  </si>
+  <si>
+    <t>Ne fonctionne pas</t>
+  </si>
+  <si>
+    <t>Pièces détachées nécessaires</t>
+  </si>
+  <si>
+    <t>Ne sais pas/Étude nécessaire</t>
+  </si>
+  <si>
+    <t>Absence d'énergie</t>
+  </si>
+  <si>
+    <t>Installation en attente</t>
+  </si>
+  <si>
+    <t>Mise hors service en attente</t>
+  </si>
+  <si>
+    <t>Technicien non disponible</t>
+  </si>
+  <si>
+    <t>Sans objet</t>
+  </si>
+  <si>
+    <t>En service</t>
+  </si>
+  <si>
+    <t>Pas en service</t>
+  </si>
+  <si>
+    <t>Entreposé dans l'attente d'une destination</t>
+  </si>
+  <si>
+    <t>Faible</t>
+  </si>
+  <si>
+    <t>Moyen</t>
+  </si>
+  <si>
+    <t>Élevé</t>
+  </si>
+  <si>
+    <t>État du réfrigérateur</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>display.locale.text.fr</t>
+  </si>
+  <si>
+    <t>Anglais</t>
+  </si>
+  <si>
+    <t>Espagnol</t>
+  </si>
+  <si>
+    <t>Francais</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Francés</t>
+  </si>
+  <si>
+    <t>display.prompt.text.fr</t>
+  </si>
+  <si>
+    <t>État de fonctionnement</t>
+  </si>
+  <si>
+    <t>Raison de la panne</t>
+  </si>
+  <si>
+    <t>Maintenance prioritaire</t>
+  </si>
+  <si>
+    <t>Choisir l'état actuel de fonctionnement :</t>
+  </si>
+  <si>
+    <t>État de fonctionnement :</t>
+  </si>
+  <si>
+    <t>Raison de la panne :</t>
+  </si>
+  <si>
+    <t>Choisir la maintenance prioritaire, le cas échéant :</t>
+  </si>
+  <si>
+    <t>Estado del Refrigerador</t>
   </si>
 </sst>
 </file>
@@ -430,7 +517,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -447,6 +534,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -859,29 +966,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="9" max="9" width="41.5703125" customWidth="1"/>
-    <col min="10" max="10" width="34.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" customWidth="1"/>
-    <col min="13" max="1025" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.81640625" customWidth="1"/>
+    <col min="2" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" customWidth="1"/>
+    <col min="7" max="7" width="29.54296875" customWidth="1"/>
+    <col min="8" max="8" width="30.453125" customWidth="1"/>
+    <col min="9" max="9" width="30.453125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="41.54296875" customWidth="1"/>
+    <col min="11" max="11" width="49.453125" customWidth="1"/>
+    <col min="12" max="12" width="49.453125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="17.1796875" customWidth="1"/>
+    <col min="14" max="14" width="6.1796875" customWidth="1"/>
+    <col min="15" max="1027" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,36 +1015,44 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="20"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>16</v>
       </c>
@@ -951,14 +1068,20 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>16</v>
       </c>
@@ -966,22 +1089,28 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
-        <v>82</v>
+      <c r="I4" s="21" t="s">
+        <v>131</v>
       </c>
       <c r="J4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>16</v>
       </c>
@@ -997,14 +1126,20 @@
       <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>16</v>
       </c>
@@ -1020,47 +1155,51 @@
       <c r="H6" t="s">
         <v>66</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" t="s">
         <v>67</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
+      <c r="I7" s="20"/>
+      <c r="L7" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
-    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" customWidth="1"/>
+    <col min="3" max="3" width="44.1796875" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" customWidth="1"/>
+    <col min="5" max="5" width="29.54296875" customWidth="1"/>
+    <col min="6" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1073,8 +1212,11 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1087,25 +1229,32 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1118,78 +1267,96 @@
       <c r="D5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" t="s">
         <v>89</v>
       </c>
-      <c r="D6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" t="s">
         <v>92</v>
       </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" t="s">
         <v>95</v>
       </c>
-      <c r="D8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" t="s">
         <v>98</v>
       </c>
-      <c r="D9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" t="s">
         <v>101</v>
       </c>
-      <c r="D10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1200,10 +1367,13 @@
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1216,8 +1386,11 @@
       <c r="D13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1230,22 +1403,28 @@
       <c r="D14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
         <v>104</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>105</v>
       </c>
-      <c r="D15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1258,8 +1437,11 @@
       <c r="D17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -1272,8 +1454,11 @@
       <c r="D18" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -1286,8 +1471,11 @@
       <c r="D19" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1299,36 +1487,39 @@
       </c>
       <c r="D20" t="s">
         <v>77</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.90625" customWidth="1"/>
+    <col min="7" max="7" width="18.36328125" customWidth="1"/>
+    <col min="8" max="8" width="32.26953125" customWidth="1"/>
+    <col min="9" max="1026" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>48</v>
       </c>
@@ -1341,38 +1532,50 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="13"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="13"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="2">
         <v>20171011</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="13"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
@@ -1380,46 +1583,70 @@
         <v>80</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6" s="13"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" t="s">
         <v>58</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" t="s">
         <v>61</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>62</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/app/config/tables/refrigerators/forms/refrigerator_status/refrigerator_status.xlsx
+++ b/app/config/tables/refrigerators/forms/refrigerator_status/refrigerator_status.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="37940" windowHeight="19700" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="37940" windowHeight="19700" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" r:id="rId2"/>
-    <sheet name="settings" sheetId="5" r:id="rId3"/>
+    <sheet name="initial" sheetId="6" r:id="rId1"/>
+    <sheet name="survey" sheetId="1" r:id="rId2"/>
+    <sheet name="choices" sheetId="2" r:id="rId3"/>
+    <sheet name="settings" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="143">
   <si>
     <t>comments</t>
   </si>
@@ -438,6 +439,18 @@
   </si>
   <si>
     <t>Estado del Refrigerador</t>
+  </si>
+  <si>
+    <t>display.text</t>
+  </si>
+  <si>
+    <t>do section survey</t>
+  </si>
+  <si>
+    <t>goto _finalize</t>
+  </si>
+  <si>
+    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
   </si>
 </sst>
 </file>
@@ -509,15 +522,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -554,14 +568,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -966,6 +985,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.54296875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.453125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="27"/>
+    <col min="3" max="3" width="19.6328125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="9.54296875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+    </row>
+    <row r="3" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
@@ -1181,7 +1254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -1498,11 +1571,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/refrigerators/forms/refrigerator_status/refrigerator_status.xlsx
+++ b/app/config/tables/refrigerators/forms/refrigerator_status/refrigerator_status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="37940" windowHeight="19700" tabRatio="500"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="37940" windowHeight="19700" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="6" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="choices" sheetId="2" r:id="rId3"/>
     <sheet name="settings" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="148">
   <si>
     <t>comments</t>
   </si>
@@ -99,9 +99,6 @@
     <t>¿En uso?</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>Functionando</t>
   </si>
   <si>
@@ -129,328 +126,346 @@
     <t>data_value</t>
   </si>
   <si>
+    <t>needs_spare_parts</t>
+  </si>
+  <si>
+    <t>Needs Spare Parts</t>
+  </si>
+  <si>
+    <t>Necesita Partes</t>
+  </si>
+  <si>
+    <t>not_applicable</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>setting_name</t>
+  </si>
+  <si>
+    <t>display.locale.text</t>
+  </si>
+  <si>
+    <t>display.locale.text.es</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>refrigerators</t>
+  </si>
+  <si>
+    <t>table_id</t>
+  </si>
+  <si>
+    <t>form_version</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Inglés</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
+    <t>service_priority_list</t>
+  </si>
+  <si>
+    <t>maintenance_priority</t>
+  </si>
+  <si>
+    <t>Service Requested With Priority</t>
+  </si>
+  <si>
+    <t>Servicio solicitado con prioridad</t>
+  </si>
+  <si>
+    <t>Choose priority for maintenance if applicable:</t>
+  </si>
+  <si>
+    <t>Seleccione la prioridad de mantenimiento si corresponde:</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>No Aplica</t>
+  </si>
+  <si>
+    <t>refrigerator_status</t>
+  </si>
+  <si>
+    <t>Refrigerator Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional status: </t>
+  </si>
+  <si>
+    <t>Functional Status</t>
+  </si>
+  <si>
+    <t>functional_status</t>
+  </si>
+  <si>
+    <t>unknown_needs_investigation</t>
+  </si>
+  <si>
+    <t>Unknown/Needs Investigation</t>
+  </si>
+  <si>
+    <t>Investigación desconocida / de necesidades</t>
+  </si>
+  <si>
+    <t>lack_of_power</t>
+  </si>
+  <si>
+    <t>Lack of Power</t>
+  </si>
+  <si>
+    <t>Falta de poder</t>
+  </si>
+  <si>
+    <t>awaiting_installation</t>
+  </si>
+  <si>
+    <t>Awaiting Installation</t>
+  </si>
+  <si>
+    <t>En espera de instalación</t>
+  </si>
+  <si>
+    <t>awaiting_decomissioning</t>
+  </si>
+  <si>
+    <t>Awaiting Decomissioning</t>
+  </si>
+  <si>
+    <t>En espera de desarme</t>
+  </si>
+  <si>
+    <t>lack_of_tech_availability</t>
+  </si>
+  <si>
+    <t>Lack of Technician Availability</t>
+  </si>
+  <si>
+    <t>Falta de disponibilidad de técnicos</t>
+  </si>
+  <si>
+    <t>No aplica</t>
+  </si>
+  <si>
+    <t>display.title.text.fr</t>
+  </si>
+  <si>
+    <t>Pièces détachées nécessaires</t>
+  </si>
+  <si>
+    <t>Ne sais pas/Étude nécessaire</t>
+  </si>
+  <si>
+    <t>Absence d'énergie</t>
+  </si>
+  <si>
+    <t>Installation en attente</t>
+  </si>
+  <si>
+    <t>Mise hors service en attente</t>
+  </si>
+  <si>
+    <t>Technicien non disponible</t>
+  </si>
+  <si>
+    <t>Sans objet</t>
+  </si>
+  <si>
+    <t>En service</t>
+  </si>
+  <si>
+    <t>Faible</t>
+  </si>
+  <si>
+    <t>Moyen</t>
+  </si>
+  <si>
+    <t>Élevé</t>
+  </si>
+  <si>
+    <t>État du réfrigérateur</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>display.locale.text.fr</t>
+  </si>
+  <si>
+    <t>Anglais</t>
+  </si>
+  <si>
+    <t>Espagnol</t>
+  </si>
+  <si>
+    <t>Francais</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Francés</t>
+  </si>
+  <si>
+    <t>display.prompt.text.fr</t>
+  </si>
+  <si>
+    <t>État de fonctionnement</t>
+  </si>
+  <si>
+    <t>Raison de la panne</t>
+  </si>
+  <si>
+    <t>Maintenance prioritaire</t>
+  </si>
+  <si>
+    <t>Choisir l'état actuel de fonctionnement :</t>
+  </si>
+  <si>
+    <t>État de fonctionnement :</t>
+  </si>
+  <si>
+    <t>Raison de la panne :</t>
+  </si>
+  <si>
+    <t>Choisir la maintenance prioritaire, le cas échéant :</t>
+  </si>
+  <si>
+    <t>Estado del Refrigerador</t>
+  </si>
+  <si>
+    <t>display.text</t>
+  </si>
+  <si>
+    <t>do section survey</t>
+  </si>
+  <si>
+    <t>goto _finalize</t>
+  </si>
+  <si>
+    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
+  </si>
+  <si>
+    <t>No known issues</t>
+  </si>
+  <si>
+    <t>Needs attention</t>
+  </si>
+  <si>
+    <t>not_installed_waiting_for_installation</t>
+  </si>
+  <si>
+    <t>installed_in_use</t>
+  </si>
+  <si>
+    <t>installed_not_in_use</t>
+  </si>
+  <si>
+    <t>not_installed_removed_from_service</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>Installed - In Use</t>
+  </si>
+  <si>
+    <t>Installed - Not In Use</t>
+  </si>
+  <si>
+    <t>Not installed - Removed From Service</t>
+  </si>
+  <si>
+    <t>Not Installed - Waiting For Installation</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>No hay problemas conocidos</t>
+  </si>
+  <si>
+    <t>Necesita atención</t>
+  </si>
+  <si>
+    <t>Instalado - En uso</t>
+  </si>
+  <si>
+    <t>Instalado - No en uso</t>
+  </si>
+  <si>
+    <t>No instalado - Esperando instalación</t>
+  </si>
+  <si>
+    <t>No instalado: eliminado del servicio</t>
+  </si>
+  <si>
+    <t>Desaparecido</t>
+  </si>
+  <si>
+    <t>user_friendly_status</t>
+  </si>
+  <si>
     <t>functioning</t>
   </si>
   <si>
-    <t>Functioning</t>
-  </si>
-  <si>
-    <t>needs_spare_parts</t>
-  </si>
-  <si>
-    <t>Needs Spare Parts</t>
-  </si>
-  <si>
-    <t>Necesita Partes</t>
-  </si>
-  <si>
-    <t>not_applicable</t>
-  </si>
-  <si>
-    <t>Not Applicable</t>
-  </si>
-  <si>
-    <t>in_use</t>
-  </si>
-  <si>
-    <t>En Uso</t>
-  </si>
-  <si>
-    <t>not_in_use</t>
-  </si>
-  <si>
-    <t>Not In Use</t>
-  </si>
-  <si>
-    <t>No En Uso</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>setting_name</t>
-  </si>
-  <si>
-    <t>display.locale.text</t>
-  </si>
-  <si>
-    <t>display.locale.text.es</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>refrigerators</t>
-  </si>
-  <si>
-    <t>table_id</t>
-  </si>
-  <si>
-    <t>form_version</t>
-  </si>
-  <si>
-    <t>survey</t>
-  </si>
-  <si>
-    <t>instance_name</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Inglés</t>
-  </si>
-  <si>
-    <t>es</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>Español</t>
-  </si>
-  <si>
-    <t>service_priority_list</t>
-  </si>
-  <si>
-    <t>maintenance_priority</t>
-  </si>
-  <si>
-    <t>Service Requested With Priority</t>
-  </si>
-  <si>
-    <t>Servicio solicitado con prioridad</t>
-  </si>
-  <si>
-    <t>Choose priority for maintenance if applicable:</t>
-  </si>
-  <si>
-    <t>Seleccione la prioridad de mantenimiento si corresponde:</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Bajo</t>
-  </si>
-  <si>
-    <t>Medio</t>
-  </si>
-  <si>
-    <t>Alto</t>
-  </si>
-  <si>
-    <t>No Aplica</t>
-  </si>
-  <si>
-    <t>refrigerator_status</t>
-  </si>
-  <si>
-    <t>Refrigerator Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional status: </t>
-  </si>
-  <si>
-    <t>Functional Status</t>
-  </si>
-  <si>
-    <t>functional_status</t>
-  </si>
-  <si>
     <t>not_functioning</t>
-  </si>
-  <si>
-    <t>Not Functioning</t>
-  </si>
-  <si>
-    <t>No Functionando</t>
-  </si>
-  <si>
-    <t>unknown_needs_investigation</t>
-  </si>
-  <si>
-    <t>Unknown/Needs Investigation</t>
-  </si>
-  <si>
-    <t>Investigación desconocida / de necesidades</t>
-  </si>
-  <si>
-    <t>lack_of_power</t>
-  </si>
-  <si>
-    <t>Lack of Power</t>
-  </si>
-  <si>
-    <t>Falta de poder</t>
-  </si>
-  <si>
-    <t>awaiting_installation</t>
-  </si>
-  <si>
-    <t>Awaiting Installation</t>
-  </si>
-  <si>
-    <t>En espera de instalación</t>
-  </si>
-  <si>
-    <t>awaiting_decomissioning</t>
-  </si>
-  <si>
-    <t>Awaiting Decomissioning</t>
-  </si>
-  <si>
-    <t>En espera de desarme</t>
-  </si>
-  <si>
-    <t>lack_of_tech_availability</t>
-  </si>
-  <si>
-    <t>Lack of Technician Availability</t>
-  </si>
-  <si>
-    <t>Falta de disponibilidad de técnicos</t>
-  </si>
-  <si>
-    <t>No aplica</t>
-  </si>
-  <si>
-    <t>not_installed</t>
-  </si>
-  <si>
-    <t>Not Installed</t>
-  </si>
-  <si>
-    <t>No Instalado</t>
-  </si>
-  <si>
-    <t>display.title.text.fr</t>
-  </si>
-  <si>
-    <t>Fonctionne</t>
-  </si>
-  <si>
-    <t>Ne fonctionne pas</t>
-  </si>
-  <si>
-    <t>Pièces détachées nécessaires</t>
-  </si>
-  <si>
-    <t>Ne sais pas/Étude nécessaire</t>
-  </si>
-  <si>
-    <t>Absence d'énergie</t>
-  </si>
-  <si>
-    <t>Installation en attente</t>
-  </si>
-  <si>
-    <t>Mise hors service en attente</t>
-  </si>
-  <si>
-    <t>Technicien non disponible</t>
-  </si>
-  <si>
-    <t>Sans objet</t>
-  </si>
-  <si>
-    <t>En service</t>
-  </si>
-  <si>
-    <t>Pas en service</t>
-  </si>
-  <si>
-    <t>Entreposé dans l'attente d'une destination</t>
-  </si>
-  <si>
-    <t>Faible</t>
-  </si>
-  <si>
-    <t>Moyen</t>
-  </si>
-  <si>
-    <t>Élevé</t>
-  </si>
-  <si>
-    <t>État du réfrigérateur</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
-    <t>display.locale.text.fr</t>
-  </si>
-  <si>
-    <t>Anglais</t>
-  </si>
-  <si>
-    <t>Espagnol</t>
-  </si>
-  <si>
-    <t>Francais</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>Francés</t>
-  </si>
-  <si>
-    <t>display.prompt.text.fr</t>
-  </si>
-  <si>
-    <t>État de fonctionnement</t>
-  </si>
-  <si>
-    <t>Raison de la panne</t>
-  </si>
-  <si>
-    <t>Maintenance prioritaire</t>
-  </si>
-  <si>
-    <t>Choisir l'état actuel de fonctionnement :</t>
-  </si>
-  <si>
-    <t>État de fonctionnement :</t>
-  </si>
-  <si>
-    <t>Raison de la panne :</t>
-  </si>
-  <si>
-    <t>Choisir la maintenance prioritaire, le cas échéant :</t>
-  </si>
-  <si>
-    <t>Estado del Refrigerador</t>
-  </si>
-  <si>
-    <t>display.text</t>
-  </si>
-  <si>
-    <t>do section survey</t>
-  </si>
-  <si>
-    <t>goto _finalize</t>
-  </si>
-  <si>
-    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
   </si>
 </sst>
 </file>
@@ -483,14 +498,14 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -499,7 +514,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +525,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
         <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -531,7 +552,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -572,6 +593,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -987,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -995,7 +1019,7 @@
   <cols>
     <col min="1" max="1" width="17.453125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.54296875" style="27"/>
-    <col min="3" max="3" width="19.6328125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" style="27" customWidth="1"/>
     <col min="4" max="4" width="26.453125" style="27" customWidth="1"/>
     <col min="5" max="16384" width="9.54296875" style="27"/>
   </cols>
@@ -1008,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>0</v>
@@ -1016,19 +1040,19 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1066,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1113,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
@@ -1098,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -1142,7 +1166,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -1151,7 +1175,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.25">
@@ -1159,57 +1183,57 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1217,28 +1241,28 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1256,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1274,10 +1298,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -1286,42 +1310,38 @@
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>108</v>
-      </c>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" s="28" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
@@ -1329,240 +1349,264 @@
     </row>
     <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="D9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:5" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>119</v>
-      </c>
+      <c r="B15" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" spans="1:5" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="30"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
         <v>70</v>
       </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
       <c r="E19" s="12" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>121</v>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1586,18 +1630,18 @@
     <col min="3" max="3" width="28.453125" customWidth="1"/>
     <col min="4" max="4" width="26.7265625" customWidth="1"/>
     <col min="5" max="5" width="18.54296875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.90625" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" customWidth="1"/>
     <col min="8" max="8" width="32.26953125" customWidth="1"/>
     <col min="9" max="1026" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1606,41 +1650,41 @@
         <v>7</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>106</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E2" s="13"/>
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E3" s="13"/>
       <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2">
         <v>20171011</v>
@@ -1650,22 +1694,22 @@
     </row>
     <row r="5" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -1675,47 +1719,47 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="19" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/refrigerators/forms/refrigerator_status/refrigerator_status.xlsx
+++ b/app/config/tables/refrigerators/forms/refrigerator_status/refrigerator_status.xlsx
@@ -261,15 +261,6 @@
     <t>Investigación desconocida / de necesidades</t>
   </si>
   <si>
-    <t>lack_of_power</t>
-  </si>
-  <si>
-    <t>Lack of Power</t>
-  </si>
-  <si>
-    <t>Falta de poder</t>
-  </si>
-  <si>
     <t>awaiting_installation</t>
   </si>
   <si>
@@ -466,6 +457,15 @@
   </si>
   <si>
     <t>not_functioning</t>
+  </si>
+  <si>
+    <t>lack_of_power_fuel</t>
+  </si>
+  <si>
+    <t>Lack of Power/Fuel</t>
+  </si>
+  <si>
+    <t>Falta de poder/combustible</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>0</v>
@@ -1040,19 +1040,19 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1113,7 +1113,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
@@ -1122,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -1166,7 +1166,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -1175,7 +1175,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.25">
@@ -1183,7 +1183,7 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
         <v>75</v>
@@ -1195,7 +1195,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J4" t="s">
         <v>73</v>
@@ -1204,12 +1204,12 @@
         <v>26</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -1224,7 +1224,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
@@ -1233,7 +1233,7 @@
         <v>30</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1253,7 +1253,7 @@
         <v>58</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J6" t="s">
         <v>59</v>
@@ -1262,7 +1262,7 @@
         <v>60</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1283,7 +1283,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1310,36 +1310,36 @@
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" s="28" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E3" s="30"/>
     </row>
@@ -1361,7 +1361,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1378,24 +1378,24 @@
         <v>78</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="28" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>95</v>
+      <c r="B7" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1403,16 +1403,16 @@
         <v>27</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
@@ -1420,16 +1420,16 @@
         <v>27</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,16 +1437,16 @@
         <v>27</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
@@ -1460,10 +1460,10 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1471,13 +1471,13 @@
         <v>19</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E13" s="30"/>
     </row>
@@ -1486,13 +1486,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E14" s="30"/>
     </row>
@@ -1501,13 +1501,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E15" s="30"/>
     </row>
@@ -1516,13 +1516,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E16" s="30"/>
     </row>
@@ -1531,13 +1531,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E17" s="30"/>
     </row>
@@ -1555,7 +1555,7 @@
         <v>70</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>67</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>68</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1606,7 +1606,7 @@
         <v>69</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1650,7 +1650,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
         <v>41</v>
@@ -1659,7 +1659,7 @@
         <v>42</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1700,10 +1700,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H5" s="16"/>
     </row>
@@ -1729,7 +1729,7 @@
         <v>51</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1744,22 +1744,22 @@
         <v>54</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
